--- a/USP Selbsttest.xlsx
+++ b/USP Selbsttest.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AliTabatabaei\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AliTabatabaei\Documents\gitdemo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A298F12B-ED42-40C0-9F5E-75FE00F0BDE0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D61DBD3A-8422-47BC-99D4-452BC029E8BA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24300" windowHeight="13508" xr2:uid="{718FC84E-9F35-4E58-A52B-759BAF88840E}"/>
   </bookViews>
@@ -411,7 +411,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>54000</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
